--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Bootcamp\Homework\homework1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104B6CC-C8C4-4C10-AB9F-DE609AD681FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C71632D-D94D-4C64-B345-EB6204BB2E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
